--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Visitor Approval" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Notification Foreign Visitor" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Visitor Approval" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notification Foreign Visitor" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Visitor Approval'!$A$1:$S$68</definedName>
@@ -1170,7 +1170,7 @@
       <c r="B5" s="82" t="n"/>
       <c r="C5" s="83" t="inlineStr">
         <is>
-          <t>faris</t>
+          <t>PT AWAL BROS CITRA BATAM</t>
         </is>
       </c>
       <c r="D5" s="82" t="n"/>
@@ -1203,7 +1203,7 @@
       <c r="B6" s="82" t="n"/>
       <c r="C6" s="89" t="inlineStr">
         <is>
-          <t>by Siberkolosis</t>
+          <t>Surabaya Meeting Room</t>
         </is>
       </c>
       <c r="D6" s="82" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="B7" s="86" t="n"/>
       <c r="C7" s="93" t="inlineStr">
         <is>
-          <t>PT. SPI</t>
+          <t>PT AWAL BROS CITRA BATAM</t>
         </is>
       </c>
       <c r="D7" s="86" t="n"/>
@@ -1300,10 +1300,8 @@
         </is>
       </c>
       <c r="B9" s="84" t="n"/>
-      <c r="C9" s="101" t="inlineStr">
-        <is>
-          <t>16-10-2021</t>
-        </is>
+      <c r="C9" s="101" t="n">
+        <v>44508.33333333334</v>
       </c>
       <c r="D9" s="82" t="n"/>
       <c r="E9" s="84" t="n"/>
@@ -1339,20 +1337,16 @@
         </is>
       </c>
       <c r="B10" s="84" t="n"/>
-      <c r="C10" s="102" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
+      <c r="C10" s="102" t="n">
+        <v>44508.33333333334</v>
       </c>
       <c r="D10" s="100" t="inlineStr">
         <is>
           <t>Time To:</t>
         </is>
       </c>
-      <c r="E10" s="103" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
+      <c r="E10" s="103" t="n">
+        <v>44508.54166666666</v>
       </c>
       <c r="F10" s="94" t="n">
         <v>4</v>
@@ -1382,7 +1376,7 @@
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="75">
       <c r="A11" s="104" t="inlineStr">
         <is>
-          <t>Purpose: Service AC</t>
+          <t>WORKING</t>
         </is>
       </c>
       <c r="B11" s="86" t="n"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -1300,8 +1300,10 @@
         </is>
       </c>
       <c r="B9" s="84" t="n"/>
-      <c r="C9" s="101" t="n">
-        <v>44508.33333333334</v>
+      <c r="C9" s="101" t="inlineStr">
+        <is>
+          <t>2021-11-08 - 2021-11-08</t>
+        </is>
       </c>
       <c r="D9" s="82" t="n"/>
       <c r="E9" s="84" t="n"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -1245,7 +1245,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H7" s="96" t="n"/>
+      <c r="H7" s="96" t="inlineStr">
+        <is>
+          <t>hermanto</t>
+        </is>
+      </c>
       <c r="I7" s="82" t="n"/>
       <c r="J7" s="82" t="n"/>
       <c r="K7" s="97" t="inlineStr">
@@ -1276,7 +1280,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H8" s="96" t="n"/>
+      <c r="H8" s="96" t="inlineStr">
+        <is>
+          <t>tuti</t>
+        </is>
+      </c>
       <c r="I8" s="82" t="n"/>
       <c r="J8" s="82" t="n"/>
       <c r="K8" s="97" t="inlineStr">
@@ -1378,7 +1386,7 @@
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="75">
       <c r="A11" s="104" t="inlineStr">
         <is>
-          <t>WORKING</t>
+          <t>testytyttyv</t>
         </is>
       </c>
       <c r="B11" s="86" t="n"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -1127,7 +1127,7 @@
       <c r="B6" s="81" t="n"/>
       <c r="C6" s="44" t="inlineStr">
         <is>
-          <t>Surabaya Meeting Room</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D6" s="81" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="B9" s="106" t="n"/>
       <c r="C9" s="111" t="inlineStr">
         <is>
-          <t>2021-11-08 - 2021-11-08</t>
+          <t>2021-11-11 - 2021-11-13</t>
         </is>
       </c>
       <c r="D9" s="81" t="n"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B10" s="106" t="n"/>
       <c r="C10" s="18" t="n">
-        <v>44508.33333333334</v>
+        <v>44511.5625</v>
       </c>
       <c r="D10" s="45" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="E10" s="15" t="n">
-        <v>44508.54166666666</v>
+        <v>44513.58263888889</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>4</v>
@@ -1310,7 +1310,7 @@
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="11">
       <c r="A11" s="63" t="inlineStr">
         <is>
-          <t>testytyttyv</t>
+          <t>Memeriksa Pasien</t>
         </is>
       </c>
       <c r="B11" s="107" t="n"/>
@@ -1554,15 +1554,8 @@
         </is>
       </c>
       <c r="C21" s="106" t="n"/>
-      <c r="D21" s="101">
-        <f>CHAR(252)</f>
-        <v/>
-      </c>
-      <c r="E21" s="45" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
+      <c r="D21" s="101" t="inlineStr"/>
+      <c r="E21" s="45" t="inlineStr"/>
       <c r="F21" s="81" t="n"/>
       <c r="G21" s="81" t="n"/>
       <c r="H21" s="81" t="n"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -549,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -617,20 +617,6 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -682,7 +668,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -795,8 +781,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -807,78 +793,70 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -903,7 +881,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -981,11 +959,11 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.57"/>
@@ -1253,10 +1231,10 @@
       <c r="S10" s="12"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
@@ -1282,8 +1260,8 @@
       <c r="S11" s="12"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -1309,11 +1287,11 @@
       <c r="S12" s="12"/>
     </row>
     <row r="13" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="29" t="n">
         <v>7</v>
       </c>
@@ -1336,11 +1314,11 @@
       <c r="S13" s="12"/>
     </row>
     <row r="14" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="29" t="n">
         <v>8</v>
       </c>
@@ -1363,11 +1341,11 @@
       <c r="S14" s="12"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="29" t="n">
         <v>9</v>
       </c>
@@ -1390,10 +1368,10 @@
       <c r="S15" s="12"/>
     </row>
     <row r="16" s="8" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1429,33 +1407,33 @@
     </row>
     <row r="19" s="8" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" s="8" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
     </row>
     <row r="21" s="8" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="n">
@@ -1465,7 +1443,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1490,7 +1468,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -1515,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="38"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -1540,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="39"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -1565,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="39"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -1590,7 +1568,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -1615,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="39"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -1640,7 +1618,7 @@
         <v>35</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="39"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -1665,7 +1643,7 @@
         <v>36</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -1690,7 +1668,7 @@
         <v>37</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -1718,58 +1696,58 @@
     </row>
     <row r="33" s="8" customFormat="true" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
     </row>
     <row r="35" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="36"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="43"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="40"/>
     </row>
     <row r="36" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="29" t="n">
@@ -1778,29 +1756,29 @@
       <c r="B36" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="31"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="46"/>
     </row>
     <row r="37" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="29" t="n">
@@ -1809,29 +1787,29 @@
       <c r="B37" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="31"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="46"/>
     </row>
     <row r="38" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="29" t="n">
@@ -1840,29 +1818,29 @@
       <c r="B38" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="45"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="48"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="31"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="46"/>
     </row>
     <row r="39" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="29" t="n">
@@ -1871,29 +1849,29 @@
       <c r="B39" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="45"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="31"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
     </row>
     <row r="40" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="n">
@@ -1902,29 +1880,29 @@
       <c r="B40" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="31"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="46"/>
     </row>
     <row r="41" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="n">
@@ -1933,29 +1911,29 @@
       <c r="B41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="31"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="46"/>
     </row>
     <row r="42" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="29" t="n">
@@ -1964,29 +1942,29 @@
       <c r="B42" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="44" t="s">
+      <c r="C42" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="45"/>
+      <c r="D42" s="42"/>
       <c r="E42" s="18" t="s">
         <v>56</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="31"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="46"/>
     </row>
     <row r="43" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="29" t="n">
@@ -1995,29 +1973,29 @@
       <c r="B43" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="45"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="18" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="31"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="46"/>
     </row>
     <row r="44" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="n">
@@ -2026,29 +2004,29 @@
       <c r="B44" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="45"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F44" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="31"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="46"/>
     </row>
     <row r="45" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="n">
@@ -2057,29 +2035,29 @@
       <c r="B45" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="45"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F45" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="48"/>
-      <c r="S45" s="31"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="46"/>
     </row>
     <row r="46" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="n">
@@ -2091,26 +2069,26 @@
       <c r="C46" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="45"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F46" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="31"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="46"/>
     </row>
     <row r="47" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="29" t="n">
@@ -2119,29 +2097,29 @@
       <c r="B47" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="45"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="31"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="46"/>
     </row>
     <row r="48" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="n">
@@ -2150,29 +2128,29 @@
       <c r="B48" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="45"/>
+      <c r="D48" s="42"/>
       <c r="E48" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F48" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="31"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
     </row>
     <row r="49" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="29" t="n">
@@ -2181,29 +2159,29 @@
       <c r="B49" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="18" t="s">
         <v>61</v>
       </c>
       <c r="F49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="48"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="31"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="46"/>
     </row>
     <row r="50" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="29" t="n">
@@ -2212,29 +2190,29 @@
       <c r="B50" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="18" t="s">
         <v>70</v>
       </c>
       <c r="F50" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="31"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="46"/>
     </row>
     <row r="51" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="29" t="n">
@@ -2246,26 +2224,26 @@
       <c r="C51" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="45"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="18" t="s">
         <v>72</v>
       </c>
       <c r="F51" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="31"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="46"/>
     </row>
     <row r="52" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="29" t="n">
@@ -2274,29 +2252,29 @@
       <c r="B52" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D52" s="45"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="18" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="31"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="46"/>
     </row>
     <row r="53" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="n">
@@ -2305,29 +2283,29 @@
       <c r="B53" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="45"/>
+      <c r="D53" s="42"/>
       <c r="E53" s="18" t="s">
         <v>72</v>
       </c>
       <c r="F53" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="31"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="46"/>
     </row>
     <row r="54" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="29" t="n">
@@ -2336,29 +2314,29 @@
       <c r="B54" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="45"/>
+      <c r="D54" s="42"/>
       <c r="E54" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="31"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="46"/>
     </row>
     <row r="55" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="29" t="n">
@@ -2367,29 +2345,29 @@
       <c r="B55" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="45"/>
+      <c r="D55" s="42"/>
       <c r="E55" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F55" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="31"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="46"/>
     </row>
     <row r="56" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="29" t="n">
@@ -2398,29 +2376,29 @@
       <c r="B56" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="44" t="s">
+      <c r="C56" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="42"/>
       <c r="E56" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F56" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="31"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="46"/>
     </row>
     <row r="57" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="29" t="n">
@@ -2429,29 +2407,29 @@
       <c r="B57" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="45"/>
+      <c r="D57" s="42"/>
       <c r="E57" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F57" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="31"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="46"/>
     </row>
     <row r="58" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="29" t="n">
@@ -2460,29 +2438,29 @@
       <c r="B58" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="42"/>
       <c r="E58" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F58" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="48"/>
-      <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="48"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="31"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="46"/>
     </row>
     <row r="59" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="n">
@@ -2491,29 +2469,29 @@
       <c r="B59" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="45"/>
+      <c r="D59" s="42"/>
       <c r="E59" s="18" t="s">
         <v>83</v>
       </c>
       <c r="F59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="48"/>
-      <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
-      <c r="L59" s="48"/>
-      <c r="M59" s="48"/>
-      <c r="N59" s="48"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="31"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="46"/>
     </row>
     <row r="60" s="8" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="29" t="n">
@@ -2522,29 +2500,29 @@
       <c r="B60" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="45"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="18" t="s">
         <v>85</v>
       </c>
       <c r="F60" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="31"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="46"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="29" t="n">
@@ -2553,10 +2531,10 @@
       <c r="B61" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D61" s="45"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="18" t="s">
         <v>85</v>
       </c>
@@ -2571,10 +2549,10 @@
       <c r="B62" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D62" s="45"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="18" t="s">
         <v>85</v>
       </c>
@@ -2589,10 +2567,10 @@
       <c r="B63" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="45"/>
+      <c r="D63" s="42"/>
       <c r="E63" s="18" t="s">
         <v>85</v>
       </c>
@@ -2607,10 +2585,10 @@
       <c r="B64" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="45"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="18" t="s">
         <v>85</v>
       </c>
@@ -2628,7 +2606,7 @@
       <c r="C65" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="45"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="18" t="s">
         <v>92</v>
       </c>
@@ -2637,30 +2615,30 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="49" t="s">
+      <c r="A68" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
-      <c r="Q68" s="49"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="49"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="81">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:S1"/>
@@ -2689,23 +2667,19 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="O10:S10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="A11:E15"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="O11:S11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="O12:S12"/>
-    <mergeCell ref="A13:E13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="O13:S13"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="O14:S14"/>
-    <mergeCell ref="A15:E15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="O15:S15"/>
@@ -2774,390 +2748,390 @@
       <selection pane="topLeft" activeCell="U25" activeCellId="0" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="50" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="50" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="50" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="50" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="50" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="50" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="50" width="11.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="50" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="50" width="10.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="50" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="48" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="48" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="48" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="14.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="48" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="48" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="48" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="48" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="48" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="48" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="48" width="11.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="48" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="48" width="10.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="48" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="51"/>
     </row>
     <row r="7" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
     </row>
     <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="58" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="58" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54" t="s">
+      <c r="J8" s="52"/>
+      <c r="K8" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L8" s="54" t="s">
+      <c r="L8" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="58" t="s">
+      <c r="M8" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="59" t="s">
+      <c r="N8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="57" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" s="62" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59" t="n">
+    <row r="9" s="60" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59" t="n">
+      <c r="A10" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="n">
+      <c r="A11" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="n">
+      <c r="A12" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="n">
+      <c r="A13" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="n">
+      <c r="A14" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="n">
+      <c r="A15" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
     </row>
     <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="n">
+      <c r="A16" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59" t="n">
+      <c r="A17" s="57" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59" t="n">
+      <c r="A18" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="63"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="62"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
     </row>
     <row r="24" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="n">
+      <c r="A24" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="48" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="n">
+      <c r="A25" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50" t="n">
+      <c r="A26" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J27" s="66"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="48" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>122</v>
       </c>
     </row>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -406,7 +406,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="[$-4809]d\ mmmm&quot;, &quot;yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -479,12 +479,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Wingdings"/>
-      <family val="0"/>
-      <charset val="2"/>
+      <name val="DejaVu Serif"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="DejaVu Serif"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Wingdings"/>
       <family val="0"/>
@@ -837,11 +843,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -857,11 +863,67 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -869,71 +931,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -959,11 +965,11 @@
   </sheetPr>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.57"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -933,7 +933,7 @@
       <c r="B5" s="34" t="n"/>
       <c r="C5" s="48" t="inlineStr">
         <is>
-          <t>hermanto</t>
+          <t>Novel</t>
         </is>
       </c>
       <c r="D5" s="34" t="n"/>
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>PABX room</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -995,7 +995,7 @@
       <c r="B7" s="38" t="n"/>
       <c r="C7" s="45" t="inlineStr">
         <is>
-          <t>PT AWAL BROS CITRA BATAM</t>
+          <t>PT. AIK MOH CHEMICALS INDONESIA</t>
         </is>
       </c>
       <c r="D7" s="38" t="n"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H7" s="46" t="inlineStr">
         <is>
-          <t>hermanto</t>
+          <t>Novel</t>
         </is>
       </c>
       <c r="I7" s="34" t="n"/>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="H8" s="46" t="inlineStr">
         <is>
-          <t>tuti</t>
+          <t>Faris</t>
         </is>
       </c>
       <c r="I8" s="34" t="n"/>
@@ -1073,7 +1073,7 @@
       <c r="B9" s="36" t="n"/>
       <c r="C9" s="51" t="inlineStr">
         <is>
-          <t>2021-11-11 - 2021-11-13</t>
+          <t>2021-11-13 - 2021-11-18</t>
         </is>
       </c>
       <c r="D9" s="34" t="n"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B10" s="36" t="n"/>
       <c r="C10" s="73" t="n">
-        <v>44511.5625</v>
+        <v>44513.33333333334</v>
       </c>
       <c r="D10" s="50" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="E10" s="73" t="n">
-        <v>44513.58263888889</v>
+        <v>44518.58263888889</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>4</v>
@@ -1149,7 +1149,7 @@
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="69">
       <c r="A11" s="75" t="inlineStr">
         <is>
-          <t>Memeriksa Pasien</t>
+          <t>fghdfhgdfhd</t>
         </is>
       </c>
       <c r="B11" s="38" t="n"/>
@@ -1392,16 +1392,8 @@
         </is>
       </c>
       <c r="C21" s="36" t="n"/>
-      <c r="D21" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="E21" s="50" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
+      <c r="D21" s="74" t="inlineStr"/>
+      <c r="E21" s="50" t="inlineStr"/>
       <c r="F21" s="34" t="n"/>
       <c r="G21" s="34" t="n"/>
       <c r="H21" s="34" t="n"/>
@@ -1427,16 +1419,8 @@
         </is>
       </c>
       <c r="C22" s="36" t="n"/>
-      <c r="D22" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="E22" s="50" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
+      <c r="D22" s="74" t="inlineStr"/>
+      <c r="E22" s="50" t="inlineStr"/>
       <c r="F22" s="34" t="n"/>
       <c r="G22" s="34" t="n"/>
       <c r="H22" s="34" t="n"/>
@@ -1462,16 +1446,8 @@
         </is>
       </c>
       <c r="C23" s="36" t="n"/>
-      <c r="D23" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="E23" s="50" t="inlineStr">
-        <is>
-          <t>meeting</t>
-        </is>
-      </c>
+      <c r="D23" s="74" t="inlineStr"/>
+      <c r="E23" s="50" t="inlineStr"/>
       <c r="F23" s="34" t="n"/>
       <c r="G23" s="34" t="n"/>
       <c r="H23" s="34" t="n"/>
@@ -1605,8 +1581,16 @@
         </is>
       </c>
       <c r="C28" s="36" t="n"/>
-      <c r="D28" s="74" t="inlineStr"/>
-      <c r="E28" s="50" t="inlineStr"/>
+      <c r="D28" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E28" s="50" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
       <c r="F28" s="34" t="n"/>
       <c r="G28" s="34" t="n"/>
       <c r="H28" s="34" t="n"/>
@@ -1659,8 +1643,16 @@
         </is>
       </c>
       <c r="C30" s="36" t="n"/>
-      <c r="D30" s="74" t="inlineStr"/>
-      <c r="E30" s="50" t="inlineStr"/>
+      <c r="D30" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E30" s="50" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
       <c r="F30" s="34" t="n"/>
       <c r="G30" s="34" t="n"/>
       <c r="H30" s="34" t="n"/>
@@ -1802,11 +1794,7 @@
           <t>PABX room</t>
         </is>
       </c>
-      <c r="D37" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D37" s="74" t="inlineStr"/>
       <c r="E37" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -1845,11 +1833,7 @@
           <t>Training Room</t>
         </is>
       </c>
-      <c r="D38" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D38" s="74" t="inlineStr"/>
       <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -1888,11 +1872,7 @@
           <t>Resistor Office</t>
         </is>
       </c>
-      <c r="D39" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D39" s="74" t="inlineStr"/>
       <c r="E39" s="8" t="inlineStr">
         <is>
           <t>Charles Riyan</t>
@@ -1931,11 +1911,7 @@
           <t>Resistor production</t>
         </is>
       </c>
-      <c r="D40" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D40" s="74" t="inlineStr"/>
       <c r="E40" s="8" t="inlineStr">
         <is>
           <t>Charles Riyan</t>
@@ -1974,11 +1950,7 @@
           <t>Resistor production</t>
         </is>
       </c>
-      <c r="D41" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D41" s="74" t="inlineStr"/>
       <c r="E41" s="8" t="inlineStr">
         <is>
           <t>Charles Riyan</t>
@@ -2017,11 +1989,7 @@
           <t>IT Server Room</t>
         </is>
       </c>
-      <c r="D42" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D42" s="74" t="inlineStr"/>
       <c r="E42" s="8" t="inlineStr">
         <is>
           <t>Dharma Willy</t>
@@ -2060,11 +2028,7 @@
           <t>Workshop &amp; Machine shop</t>
         </is>
       </c>
-      <c r="D43" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D43" s="74" t="inlineStr"/>
       <c r="E43" s="8" t="inlineStr">
         <is>
           <t>Fajar Wisnu</t>
@@ -2103,11 +2067,7 @@
           <t>Medan Meeting Room</t>
         </is>
       </c>
-      <c r="D44" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D44" s="74" t="inlineStr"/>
       <c r="E44" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>
@@ -2146,11 +2106,7 @@
           <t>Surabaya Meeting Room</t>
         </is>
       </c>
-      <c r="D45" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D45" s="74" t="inlineStr"/>
       <c r="E45" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>
@@ -2189,11 +2145,7 @@
           <t>Yogyakarta Meeting Room</t>
         </is>
       </c>
-      <c r="D46" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D46" s="74" t="inlineStr"/>
       <c r="E46" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>
@@ -2232,11 +2184,7 @@
           <t>Denpasar Meeting Room</t>
         </is>
       </c>
-      <c r="D47" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D47" s="74" t="inlineStr"/>
       <c r="E47" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>
@@ -2275,11 +2223,7 @@
           <t>Jakarta Meeting Room</t>
         </is>
       </c>
-      <c r="D48" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D48" s="74" t="inlineStr"/>
       <c r="E48" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>
@@ -2318,11 +2262,7 @@
           <t>CB &amp; IE Room</t>
         </is>
       </c>
-      <c r="D49" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D49" s="74" t="inlineStr"/>
       <c r="E49" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>
@@ -2361,11 +2301,7 @@
           <t>EM &amp; PED Office</t>
         </is>
       </c>
-      <c r="D50" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D50" s="74" t="inlineStr"/>
       <c r="E50" s="8" t="inlineStr">
         <is>
           <t>Kah Ang Hup</t>
@@ -2404,11 +2340,7 @@
           <t>Capacitor Production</t>
         </is>
       </c>
-      <c r="D51" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D51" s="74" t="inlineStr"/>
       <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>
@@ -2447,11 +2379,7 @@
           <t>Capacitor Office</t>
         </is>
       </c>
-      <c r="D52" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D52" s="74" t="inlineStr"/>
       <c r="E52" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>
@@ -2490,11 +2418,7 @@
           <t>Capacitor Production</t>
         </is>
       </c>
-      <c r="D53" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D53" s="74" t="inlineStr"/>
       <c r="E53" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>
@@ -2533,11 +2457,7 @@
           <t>QD Laboratory</t>
         </is>
       </c>
-      <c r="D54" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D54" s="74" t="inlineStr"/>
       <c r="E54" s="8" t="inlineStr">
         <is>
           <t>Marx Teh</t>
@@ -2576,11 +2496,7 @@
           <t>QD Office</t>
         </is>
       </c>
-      <c r="D55" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D55" s="74" t="inlineStr"/>
       <c r="E55" s="8" t="inlineStr">
         <is>
           <t>Marx Teh</t>
@@ -2619,11 +2535,7 @@
           <t>Calibration/Reliability Room</t>
         </is>
       </c>
-      <c r="D56" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D56" s="74" t="inlineStr"/>
       <c r="E56" s="8" t="inlineStr">
         <is>
           <t>Marx Teh</t>
@@ -2662,11 +2574,7 @@
           <t>Varistor office</t>
         </is>
       </c>
-      <c r="D57" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D57" s="74" t="inlineStr"/>
       <c r="E57" s="8" t="inlineStr">
         <is>
           <t>Max Voon Keng Yau</t>
@@ -2705,11 +2613,7 @@
           <t>Varistor production</t>
         </is>
       </c>
-      <c r="D58" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D58" s="74" t="inlineStr"/>
       <c r="E58" s="8" t="inlineStr">
         <is>
           <t>Max Voon Keng Yau</t>
@@ -2748,11 +2652,7 @@
           <t>Logistic office</t>
         </is>
       </c>
-      <c r="D59" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D59" s="74" t="inlineStr"/>
       <c r="E59" s="8" t="inlineStr">
         <is>
           <t>Chalid Zamzami</t>
@@ -2791,11 +2691,7 @@
           <t>Coil Automotive production PCC</t>
         </is>
       </c>
-      <c r="D60" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D60" s="74" t="inlineStr"/>
       <c r="E60" s="8" t="inlineStr">
         <is>
           <t>Tye Yew Fatt</t>
@@ -2834,11 +2730,7 @@
           <t>Inductor  production</t>
         </is>
       </c>
-      <c r="D61" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D61" s="74" t="inlineStr"/>
       <c r="E61" s="8" t="inlineStr">
         <is>
           <t>Tye Yew Fatt</t>
@@ -2864,11 +2756,7 @@
           <t>Inductor Office</t>
         </is>
       </c>
-      <c r="D62" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D62" s="74" t="inlineStr"/>
       <c r="E62" s="8" t="inlineStr">
         <is>
           <t>Tye Yew Fatt</t>
@@ -2894,11 +2782,7 @@
           <t>Inductor production - PCC</t>
         </is>
       </c>
-      <c r="D63" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D63" s="74" t="inlineStr"/>
       <c r="E63" s="8" t="inlineStr">
         <is>
           <t>Tye Yew Fatt</t>
@@ -2924,11 +2808,7 @@
           <t>LELP Production</t>
         </is>
       </c>
-      <c r="D64" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D64" s="74" t="inlineStr"/>
       <c r="E64" s="8" t="inlineStr">
         <is>
           <t>Tye Yew Fatt</t>
@@ -2954,11 +2834,7 @@
           <t>Power house</t>
         </is>
       </c>
-      <c r="D65" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D65" s="74" t="inlineStr"/>
       <c r="E65" s="8" t="inlineStr">
         <is>
           <t>Yunda</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Corporate Office</t>
+          <t>Training Room</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -1751,11 +1751,7 @@
           <t>Corporate Office</t>
         </is>
       </c>
-      <c r="D36" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D36" s="74" t="inlineStr"/>
       <c r="E36" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -1833,7 +1829,11 @@
           <t>Training Room</t>
         </is>
       </c>
-      <c r="D38" s="74" t="inlineStr"/>
+      <c r="D38" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Training Room</t>
+          <t>Denpasar Meeting Room</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -1829,11 +1829,7 @@
           <t>Training Room</t>
         </is>
       </c>
-      <c r="D38" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D38" s="74" t="inlineStr"/>
       <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -2184,7 +2180,11 @@
           <t>Denpasar Meeting Room</t>
         </is>
       </c>
-      <c r="D47" s="74" t="inlineStr"/>
+      <c r="D47" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E47" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -933,7 +933,7 @@
       <c r="B5" s="34" t="n"/>
       <c r="C5" s="48" t="inlineStr">
         <is>
-          <t>Novel</t>
+          <t>Faris</t>
         </is>
       </c>
       <c r="D5" s="34" t="n"/>
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Denpasar Meeting Room</t>
+          <t>LOGISTIC</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -995,7 +995,7 @@
       <c r="B7" s="38" t="n"/>
       <c r="C7" s="45" t="inlineStr">
         <is>
-          <t>PT. AIK MOH CHEMICALS INDONESIA</t>
+          <t xml:space="preserve">CV. ANINDYATRANS </t>
         </is>
       </c>
       <c r="D7" s="38" t="n"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H7" s="46" t="inlineStr">
         <is>
-          <t>Novel</t>
+          <t>Faris</t>
         </is>
       </c>
       <c r="I7" s="34" t="n"/>
@@ -1043,11 +1043,7 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H8" s="46" t="inlineStr">
-        <is>
-          <t>Faris</t>
-        </is>
-      </c>
+      <c r="H8" s="46" t="inlineStr"/>
       <c r="I8" s="34" t="n"/>
       <c r="J8" s="34" t="n"/>
       <c r="K8" s="47" t="inlineStr">
@@ -1073,7 +1069,7 @@
       <c r="B9" s="36" t="n"/>
       <c r="C9" s="51" t="inlineStr">
         <is>
-          <t>2021-11-13 - 2021-11-18</t>
+          <t>2021-11-23 - 2021-11-23</t>
         </is>
       </c>
       <c r="D9" s="34" t="n"/>
@@ -1111,7 +1107,7 @@
       </c>
       <c r="B10" s="36" t="n"/>
       <c r="C10" s="73" t="n">
-        <v>44513.33333333334</v>
+        <v>44523.33333333334</v>
       </c>
       <c r="D10" s="50" t="inlineStr">
         <is>
@@ -1119,7 +1115,7 @@
         </is>
       </c>
       <c r="E10" s="73" t="n">
-        <v>44518.58263888889</v>
+        <v>44523.58263888889</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>4</v>
@@ -1147,11 +1143,7 @@
       <c r="S10" s="36" t="n"/>
     </row>
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="69">
-      <c r="A11" s="75" t="inlineStr">
-        <is>
-          <t>fghdfhgdfhd</t>
-        </is>
-      </c>
+      <c r="A11" s="75" t="inlineStr"/>
       <c r="B11" s="38" t="n"/>
       <c r="C11" s="38" t="n"/>
       <c r="D11" s="38" t="n"/>
@@ -1581,16 +1573,8 @@
         </is>
       </c>
       <c r="C28" s="36" t="n"/>
-      <c r="D28" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="E28" s="50" t="inlineStr">
-        <is>
-          <t>Meeting</t>
-        </is>
-      </c>
+      <c r="D28" s="74" t="inlineStr"/>
+      <c r="E28" s="50" t="inlineStr"/>
       <c r="F28" s="34" t="n"/>
       <c r="G28" s="34" t="n"/>
       <c r="H28" s="34" t="n"/>
@@ -1643,16 +1627,8 @@
         </is>
       </c>
       <c r="C30" s="36" t="n"/>
-      <c r="D30" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="E30" s="50" t="inlineStr">
-        <is>
-          <t>Meeting</t>
-        </is>
-      </c>
+      <c r="D30" s="74" t="inlineStr"/>
+      <c r="E30" s="50" t="inlineStr"/>
       <c r="F30" s="34" t="n"/>
       <c r="G30" s="34" t="n"/>
       <c r="H30" s="34" t="n"/>
@@ -2180,11 +2156,7 @@
           <t>Denpasar Meeting Room</t>
         </is>
       </c>
-      <c r="D47" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D47" s="74" t="inlineStr"/>
       <c r="E47" s="8" t="inlineStr">
         <is>
           <t>Hamonangan</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -1143,7 +1143,11 @@
       <c r="S10" s="36" t="n"/>
     </row>
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="69">
-      <c r="A11" s="75" t="inlineStr"/>
+      <c r="A11" s="75" t="inlineStr">
+        <is>
+          <t>fghdfhgdfhd</t>
+        </is>
+      </c>
       <c r="B11" s="38" t="n"/>
       <c r="C11" s="38" t="n"/>
       <c r="D11" s="38" t="n"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -1143,11 +1143,7 @@
       <c r="S10" s="36" t="n"/>
     </row>
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="69">
-      <c r="A11" s="75" t="inlineStr">
-        <is>
-          <t>fghdfhgdfhd</t>
-        </is>
-      </c>
+      <c r="A11" s="75" t="inlineStr"/>
       <c r="B11" s="38" t="n"/>
       <c r="C11" s="38" t="n"/>
       <c r="D11" s="38" t="n"/>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -933,7 +933,7 @@
       <c r="B5" s="34" t="n"/>
       <c r="C5" s="48" t="inlineStr">
         <is>
-          <t>Faris</t>
+          <t>fdgsdgfs</t>
         </is>
       </c>
       <c r="D5" s="34" t="n"/>
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>LOGISTIC</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -995,7 +995,7 @@
       <c r="B7" s="38" t="n"/>
       <c r="C7" s="45" t="inlineStr">
         <is>
-          <t xml:space="preserve">CV. ANINDYATRANS </t>
+          <t>PT AVECODE INTERNATIONAL</t>
         </is>
       </c>
       <c r="D7" s="38" t="n"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H7" s="46" t="inlineStr">
         <is>
-          <t>Faris</t>
+          <t>fdgsdgfs</t>
         </is>
       </c>
       <c r="I7" s="34" t="n"/>
@@ -1069,7 +1069,7 @@
       <c r="B9" s="36" t="n"/>
       <c r="C9" s="51" t="inlineStr">
         <is>
-          <t>2021-11-23 - 2021-11-23</t>
+          <t>2021-11-24 - 2021-11-25</t>
         </is>
       </c>
       <c r="D9" s="34" t="n"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B10" s="36" t="n"/>
       <c r="C10" s="73" t="n">
-        <v>44523.33333333334</v>
+        <v>44524.375</v>
       </c>
       <c r="D10" s="50" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         </is>
       </c>
       <c r="E10" s="73" t="n">
-        <v>44523.58263888889</v>
+        <v>44525.41666666666</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>4</v>
@@ -1727,7 +1727,11 @@
           <t>Corporate Office</t>
         </is>
       </c>
-      <c r="D36" s="74" t="inlineStr"/>
+      <c r="D36" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E36" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Corporate Office</t>
+          <t>Training Room</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -1727,11 +1727,7 @@
           <t>Corporate Office</t>
         </is>
       </c>
-      <c r="D36" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D36" s="74" t="inlineStr"/>
       <c r="E36" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -1809,7 +1805,11 @@
           <t>Training Room</t>
         </is>
       </c>
-      <c r="D38" s="74" t="inlineStr"/>
+      <c r="D38" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Training Room</t>
+          <t>Capacitor Production</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -1805,11 +1805,7 @@
           <t>Training Room</t>
         </is>
       </c>
-      <c r="D38" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D38" s="74" t="inlineStr"/>
       <c r="E38" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -2316,7 +2312,11 @@
           <t>Capacitor Production</t>
         </is>
       </c>
-      <c r="D51" s="74" t="inlineStr"/>
+      <c r="D51" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>
@@ -2394,7 +2394,11 @@
           <t>Capacitor Production</t>
         </is>
       </c>
-      <c r="D53" s="74" t="inlineStr"/>
+      <c r="D53" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E53" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>

--- a/website/static/VisitorApprovalBT.xlsx
+++ b/website/static/VisitorApprovalBT.xlsx
@@ -933,7 +933,7 @@
       <c r="B5" s="34" t="n"/>
       <c r="C5" s="48" t="inlineStr">
         <is>
-          <t>fdgsdgfs</t>
+          <t>Novel</t>
         </is>
       </c>
       <c r="D5" s="34" t="n"/>
@@ -966,7 +966,7 @@
       <c r="B6" s="34" t="n"/>
       <c r="C6" s="43" t="inlineStr">
         <is>
-          <t>Capacitor Production</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D6" s="34" t="n"/>
@@ -995,7 +995,7 @@
       <c r="B7" s="38" t="n"/>
       <c r="C7" s="45" t="inlineStr">
         <is>
-          <t>PT AVECODE INTERNATIONAL</t>
+          <t>SIBERKOLOSIS</t>
         </is>
       </c>
       <c r="D7" s="38" t="n"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="H7" s="46" t="inlineStr">
         <is>
-          <t>fdgsdgfs</t>
+          <t>Novel</t>
         </is>
       </c>
       <c r="I7" s="34" t="n"/>
@@ -1043,7 +1043,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H8" s="46" t="inlineStr"/>
+      <c r="H8" s="46" t="inlineStr">
+        <is>
+          <t>Faris</t>
+        </is>
+      </c>
       <c r="I8" s="34" t="n"/>
       <c r="J8" s="34" t="n"/>
       <c r="K8" s="47" t="inlineStr">
@@ -1069,7 +1073,7 @@
       <c r="B9" s="36" t="n"/>
       <c r="C9" s="51" t="inlineStr">
         <is>
-          <t>2021-11-24 - 2021-11-25</t>
+          <t>2021-11-19 - 2021-11-23</t>
         </is>
       </c>
       <c r="D9" s="34" t="n"/>
@@ -1082,7 +1086,11 @@
           <t xml:space="preserve">Name: </t>
         </is>
       </c>
-      <c r="H9" s="46" t="inlineStr"/>
+      <c r="H9" s="46" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I9" s="34" t="n"/>
       <c r="J9" s="34" t="n"/>
       <c r="K9" s="47" t="inlineStr">
@@ -1107,7 +1115,7 @@
       </c>
       <c r="B10" s="36" t="n"/>
       <c r="C10" s="73" t="n">
-        <v>44524.375</v>
+        <v>44519.33333333334</v>
       </c>
       <c r="D10" s="50" t="inlineStr">
         <is>
@@ -1115,7 +1123,7 @@
         </is>
       </c>
       <c r="E10" s="73" t="n">
-        <v>44525.41666666666</v>
+        <v>44523.58263888889</v>
       </c>
       <c r="F10" s="8" t="n">
         <v>4</v>
@@ -1125,7 +1133,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H10" s="47" t="inlineStr"/>
+      <c r="H10" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I10" s="34" t="n"/>
       <c r="J10" s="34" t="n"/>
       <c r="K10" s="47" t="inlineStr">
@@ -1143,7 +1155,11 @@
       <c r="S10" s="36" t="n"/>
     </row>
     <row r="11" ht="13.5" customFormat="1" customHeight="1" s="69">
-      <c r="A11" s="75" t="inlineStr"/>
+      <c r="A11" s="75" t="inlineStr">
+        <is>
+          <t>fghdfhgdfhd</t>
+        </is>
+      </c>
       <c r="B11" s="38" t="n"/>
       <c r="C11" s="38" t="n"/>
       <c r="D11" s="38" t="n"/>
@@ -1156,7 +1172,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H11" s="47" t="inlineStr"/>
+      <c r="H11" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I11" s="34" t="n"/>
       <c r="J11" s="34" t="n"/>
       <c r="K11" s="47" t="inlineStr">
@@ -1184,7 +1204,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H12" s="47" t="inlineStr"/>
+      <c r="H12" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I12" s="34" t="n"/>
       <c r="J12" s="34" t="n"/>
       <c r="K12" s="47" t="inlineStr">
@@ -1212,7 +1236,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H13" s="47" t="inlineStr"/>
+      <c r="H13" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I13" s="34" t="n"/>
       <c r="J13" s="34" t="n"/>
       <c r="K13" s="47" t="inlineStr">
@@ -1240,7 +1268,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H14" s="47" t="inlineStr"/>
+      <c r="H14" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I14" s="34" t="n"/>
       <c r="J14" s="34" t="n"/>
       <c r="K14" s="47" t="inlineStr">
@@ -1271,7 +1303,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H15" s="47" t="inlineStr"/>
+      <c r="H15" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I15" s="34" t="n"/>
       <c r="J15" s="34" t="n"/>
       <c r="K15" s="47" t="inlineStr">
@@ -1306,7 +1342,11 @@
           <t>Name:</t>
         </is>
       </c>
-      <c r="H16" s="47" t="inlineStr"/>
+      <c r="H16" s="47" t="inlineStr">
+        <is>
+          <t>Novel</t>
+        </is>
+      </c>
       <c r="I16" s="34" t="n"/>
       <c r="J16" s="34" t="n"/>
       <c r="K16" s="47" t="inlineStr">
@@ -1727,7 +1767,11 @@
           <t>Corporate Office</t>
         </is>
       </c>
-      <c r="D36" s="74" t="inlineStr"/>
+      <c r="D36" s="74" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
       <c r="E36" s="8" t="inlineStr">
         <is>
           <t>Adityo Asmoro</t>
@@ -2312,11 +2356,7 @@
           <t>Capacitor Production</t>
         </is>
       </c>
-      <c r="D51" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D51" s="74" t="inlineStr"/>
       <c r="E51" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>
@@ -2394,11 +2434,7 @@
           <t>Capacitor Production</t>
         </is>
       </c>
-      <c r="D53" s="74" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
+      <c r="D53" s="74" t="inlineStr"/>
       <c r="E53" s="8" t="inlineStr">
         <is>
           <t>Lloyd Hing</t>
